--- a/biology/Zoologie/Dagetichthys/Dagetichthys.xlsx
+++ b/biology/Zoologie/Dagetichthys/Dagetichthys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dagetichthys est un genre de poissons plats de la famille des Soleidae.
 </t>
@@ -511,12 +523,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (22 janvier 2024)[1] :
-Dagetichthys lakdoensis Stauch &amp; Blanc, 1964 - bassin de la Bénoué, au Cameroun[2]
-Dagetichthys lusitanicus (de Brito Capello, 1868) - côte Atlantique du Sud-Ouest de l'Europe et de l'Afrique[2]
-Dagetichthys marginatus (Boulenger, 1900) - côtes de l'Afrique du Sud[2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (22 janvier 2024) :
+Dagetichthys lakdoensis Stauch &amp; Blanc, 1964 - bassin de la Bénoué, au Cameroun
+Dagetichthys lusitanicus (de Brito Capello, 1868) - côte Atlantique du Sud-Ouest de l'Europe et de l'Afrique
+Dagetichthys marginatus (Boulenger, 1900) - côtes de l'Afrique du Sud</t>
         </is>
       </c>
     </row>
@@ -544,10 +558,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Dagetichthys Stauch &amp; Blanc, 1964[1],[3].
-Dagetichthys a pour synonyme[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Dagetichthys Stauch &amp; Blanc, 1964,.
+Dagetichthys a pour synonyme :
 Trichobrachirus Chabanaud, 1943</t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Dagetichthys, a été choisi en l'honneur de l'ichtyologiste Jacques Daget (1919-2009), ami des auteurs et spécialiste des poissons africains[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Dagetichthys, a été choisi en l'honneur de l'ichtyologiste Jacques Daget (1919-2009), ami des auteurs et spécialiste des poissons africains.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>A. Stauch et M. Blanc, « Dagetichthys lakdoensis n. g., n. sp., Téléostéen Pleuronectiforme du bassin de la Haute-Bénoué », Bulletin du Muséum national d'histoire naturelle, Paris, IN  Groupe, vol. 36, no 2,‎ 1964, p. 172-177 (ISSN 1148-8425 et 2420-1901, OCLC 801819388, BNF 34428233, lire en ligne)</t>
         </is>
